--- a/Reports And Zips/Team05Report 10.23.xlsx
+++ b/Reports And Zips/Team05Report 10.23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samar\Downloads\Scanned pics\stevens\Assignments\Agile\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7AAE59-093D-45FF-B6EC-943B93B146B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465F8B8-ECC2-47F0-9D3E-A03A401F87DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2835" windowWidth="21600" windowHeight="11835" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="145">
   <si>
     <t>Initials</t>
   </si>
@@ -532,6 +532,15 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Average Woman age</t>
+  </si>
+  <si>
+    <t>Average number of children per family</t>
+  </si>
+  <si>
+    <t>Calculate the average number of children per family</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1359,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1620,7 +1629,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1843,7 +1852,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2066,7 +2075,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2336,7 +2345,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2559,7 +2568,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3734,13 +3743,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -3907,14 +3916,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="73.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="5" customWidth="1"/>
-    <col min="6" max="256" width="10.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="73.36328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" style="5" customWidth="1"/>
+    <col min="6" max="256" width="10.90625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15" customHeight="1">
@@ -5712,7 +5721,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.95" customHeight="1">
+    <row r="18" spans="1:5" ht="12.9" customHeight="1">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -5729,7 +5738,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.95" customHeight="1">
+    <row r="19" spans="1:5" ht="12.9" customHeight="1">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -5746,7 +5755,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.95" customHeight="1">
+    <row r="20" spans="1:5" ht="12.9" customHeight="1">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -5763,7 +5772,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.95" customHeight="1">
+    <row r="21" spans="1:5" ht="12.9" customHeight="1">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -5780,7 +5789,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.95" customHeight="1">
+    <row r="22" spans="1:5" ht="12.9" customHeight="1">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -5797,7 +5806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.95" customHeight="1">
+    <row r="23" spans="1:5" ht="12.9" customHeight="1">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -5832,18 +5841,18 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
-    <col min="7" max="256" width="10.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="8" customWidth="1"/>
+    <col min="7" max="256" width="10.90625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.95" customHeight="1">
+    <row r="1" spans="1:8" ht="12.9" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -5855,7 +5864,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="12.95" customHeight="1">
+    <row r="2" spans="1:8" ht="12.9" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -5867,7 +5876,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="12.95" customHeight="1">
+    <row r="3" spans="1:8" ht="12.9" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
@@ -5879,7 +5888,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="12.95" customHeight="1">
+    <row r="4" spans="1:8" ht="12.9" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5889,7 +5898,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="12.95" customHeight="1">
+    <row r="5" spans="1:8" ht="12.9" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
@@ -5901,7 +5910,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="12.95" customHeight="1">
+    <row r="6" spans="1:8" ht="12.9" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
@@ -5913,7 +5922,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="12.95" customHeight="1">
+    <row r="7" spans="1:8" ht="12.9" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5923,7 +5932,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="12.95" customHeight="1">
+    <row r="8" spans="1:8" ht="12.9" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>64</v>
       </c>
@@ -5935,7 +5944,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="12.95" customHeight="1">
+    <row r="9" spans="1:8" ht="12.9" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5945,7 +5954,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="12.95" customHeight="1">
+    <row r="10" spans="1:8" ht="12.9" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5955,7 +5964,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.95" customHeight="1">
+    <row r="11" spans="1:8" ht="12.9" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5965,7 +5974,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="12.95" customHeight="1">
+    <row r="12" spans="1:8" ht="12.9" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5975,7 +5984,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="12.95" customHeight="1">
+    <row r="13" spans="1:8" ht="12.9" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5985,7 +5994,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="12.95" customHeight="1">
+    <row r="14" spans="1:8" ht="12.9" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -6009,7 +6018,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="12.95" customHeight="1">
+    <row r="15" spans="1:8" ht="12.9" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
@@ -6027,7 +6036,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="12.95" customHeight="1">
+    <row r="16" spans="1:8" ht="12.9" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>72</v>
       </c>
@@ -6053,7 +6062,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="12.95" customHeight="1">
+    <row r="17" spans="1:8" ht="12.9" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>73</v>
       </c>
@@ -6079,7 +6088,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="12.95" customHeight="1">
+    <row r="18" spans="1:8" ht="12.9" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>74</v>
       </c>
@@ -6105,7 +6114,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="12.95" customHeight="1">
+    <row r="19" spans="1:8" ht="12.9" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
@@ -6131,7 +6140,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="12.95" customHeight="1">
+    <row r="20" spans="1:8" ht="12.9" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="20"/>
@@ -6141,7 +6150,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="12.95" customHeight="1">
+    <row r="21" spans="1:8" ht="12.9" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6151,7 +6160,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="12.95" customHeight="1">
+    <row r="22" spans="1:8" ht="12.9" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6161,7 +6170,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="12.95" customHeight="1">
+    <row r="23" spans="1:8" ht="12.9" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6171,7 +6180,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="12.95" customHeight="1">
+    <row r="24" spans="1:8" ht="12.9" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6181,7 +6190,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="12.95" customHeight="1">
+    <row r="25" spans="1:8" ht="12.9" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6191,7 +6200,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="12.95" customHeight="1">
+    <row r="26" spans="1:8" ht="12.9" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6201,7 +6210,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="12.95" customHeight="1">
+    <row r="27" spans="1:8" ht="12.9" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6211,7 +6220,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="12.95" customHeight="1">
+    <row r="28" spans="1:8" ht="12.9" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6221,7 +6230,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="12.95" customHeight="1">
+    <row r="29" spans="1:8" ht="12.9" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6231,7 +6240,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="12.95" customHeight="1">
+    <row r="30" spans="1:8" ht="12.9" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6241,7 +6250,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="12.95" customHeight="1">
+    <row r="31" spans="1:8" ht="12.9" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6251,7 +6260,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="12.95" customHeight="1">
+    <row r="32" spans="1:8" ht="12.9" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6261,7 +6270,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="12.95" customHeight="1">
+    <row r="33" spans="1:8" ht="12.9" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6271,7 +6280,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="12.95" customHeight="1">
+    <row r="34" spans="1:8" ht="12.9" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6281,7 +6290,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="12.95" customHeight="1">
+    <row r="35" spans="1:8" ht="12.9" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6291,7 +6300,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="12.95" customHeight="1">
+    <row r="36" spans="1:8" ht="12.9" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6301,7 +6310,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="12.95" customHeight="1">
+    <row r="37" spans="1:8" ht="12.9" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6311,7 +6320,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="12.95" customHeight="1">
+    <row r="38" spans="1:8" ht="12.9" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6321,7 +6330,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="12.95" customHeight="1">
+    <row r="39" spans="1:8" ht="12.9" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6350,18 +6359,18 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="22" customWidth="1"/>
-    <col min="7" max="256" width="10.875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="22" customWidth="1"/>
+    <col min="7" max="256" width="10.90625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.95" customHeight="1">
+    <row r="1" spans="1:7" ht="12.9" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -6382,7 +6391,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="12.95" customHeight="1">
+    <row r="2" spans="1:7" ht="12.9" customHeight="1">
       <c r="A2" s="23">
         <v>42271</v>
       </c>
@@ -6397,7 +6406,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="12.95" customHeight="1">
+    <row r="3" spans="1:7" ht="12.9" customHeight="1">
       <c r="A3" s="23">
         <v>42284</v>
       </c>
@@ -6418,7 +6427,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="12.95" customHeight="1">
+    <row r="4" spans="1:7" ht="12.9" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6427,7 +6436,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="12.95" customHeight="1">
+    <row r="5" spans="1:7" ht="12.9" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6436,7 +6445,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.95" customHeight="1">
+    <row r="6" spans="1:7" ht="12.9" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6445,7 +6454,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.95" customHeight="1">
+    <row r="7" spans="1:7" ht="12.9" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6454,7 +6463,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.95" customHeight="1">
+    <row r="8" spans="1:7" ht="12.9" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6463,7 +6472,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.95" customHeight="1">
+    <row r="9" spans="1:7" ht="12.9" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6472,7 +6481,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="12.95" customHeight="1">
+    <row r="10" spans="1:7" ht="12.9" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6481,7 +6490,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.95" customHeight="1">
+    <row r="11" spans="1:7" ht="12.9" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6490,7 +6499,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="12.95" customHeight="1">
+    <row r="12" spans="1:7" ht="12.9" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6499,7 +6508,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="12.95" customHeight="1">
+    <row r="13" spans="1:7" ht="12.9" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6508,7 +6517,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="12.95" customHeight="1">
+    <row r="14" spans="1:7" ht="12.9" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6517,7 +6526,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="12.95" customHeight="1">
+    <row r="15" spans="1:7" ht="12.9" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6526,7 +6535,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="12.95" customHeight="1">
+    <row r="16" spans="1:7" ht="12.9" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6535,7 +6544,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="12.95" customHeight="1">
+    <row r="17" spans="1:7" ht="12.9" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6544,7 +6553,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="12.95" customHeight="1">
+    <row r="18" spans="1:7" ht="12.9" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6553,7 +6562,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="12.95" customHeight="1">
+    <row r="19" spans="1:7" ht="12.9" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6562,7 +6571,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="12.95" customHeight="1">
+    <row r="20" spans="1:7" ht="12.9" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6571,7 +6580,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="12.95" customHeight="1">
+    <row r="21" spans="1:7" ht="12.9" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6580,7 +6589,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="12.95" customHeight="1">
+    <row r="22" spans="1:7" ht="12.9" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6589,7 +6598,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="12.95" customHeight="1">
+    <row r="23" spans="1:7" ht="12.9" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6598,7 +6607,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="12.95" customHeight="1">
+    <row r="24" spans="1:7" ht="12.9" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6607,7 +6616,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="12.95" customHeight="1">
+    <row r="25" spans="1:7" ht="12.9" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6616,7 +6625,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="12.95" customHeight="1">
+    <row r="26" spans="1:7" ht="12.9" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6643,17 +6652,17 @@
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="24" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="24" customWidth="1"/>
-    <col min="9" max="256" width="10.875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="24" customWidth="1"/>
+    <col min="9" max="256" width="10.90625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
@@ -7112,16 +7121,16 @@
   <dimension ref="A1:IV11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="29" customWidth="1"/>
-    <col min="5" max="256" width="10.875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="54.453125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" style="29" customWidth="1"/>
+    <col min="5" max="256" width="10.90625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.1" customHeight="1">
@@ -7264,9 +7273,15 @@
       <c r="F6" s="3">
         <v>90</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="3">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -7333,9 +7348,15 @@
       <c r="F9" s="3">
         <v>90</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="3">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3">
+        <v>40</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -7366,7 +7387,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+    <row r="11" spans="1:9" ht="12.9" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
@@ -7410,14 +7431,14 @@
   <dimension ref="A1:IV11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="48.5" style="30" customWidth="1"/>
-    <col min="3" max="256" width="10.875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="48.453125" style="30" customWidth="1"/>
+    <col min="3" max="256" width="10.90625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.1" customHeight="1">
@@ -7499,11 +7520,21 @@
       <c r="A4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3">
+        <v>75</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -7512,11 +7543,21 @@
       <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3">
+        <v>75</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -7586,7 +7627,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+    <row r="11" spans="1:9" ht="12.9" customHeight="1">
       <c r="A11" s="43" t="s">
         <v>128</v>
       </c>
@@ -7607,9 +7648,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="10.875" style="31" customWidth="1"/>
+    <col min="1" max="256" width="10.90625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.1" customHeight="1">
@@ -7754,16 +7795,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="56.875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="32" customWidth="1"/>
-    <col min="4" max="256" width="10.875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="56.90625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="32" customWidth="1"/>
+    <col min="4" max="256" width="10.90625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -7792,7 +7833,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="50.45" customHeight="1">
+    <row r="3" spans="1:5" ht="50.4" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>40</v>
       </c>
@@ -7870,7 +7911,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="50.45" customHeight="1">
+    <row r="9" spans="1:5" ht="50.4" customHeight="1">
       <c r="A9" s="38" t="s">
         <v>53</v>
       </c>
@@ -8000,7 +8041,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="35.450000000000003" customHeight="1">
+    <row r="19" spans="1:5" ht="35.4" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -8066,16 +8107,28 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="32.1" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>98</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="48" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>144</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
@@ -8093,7 +8146,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.95" customHeight="1">
+    <row r="28" spans="1:5" ht="15.9" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="33"/>
@@ -8107,14 +8160,14 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.95" customHeight="1">
+    <row r="30" spans="1:5" ht="15.9" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="33"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.95" customHeight="1">
+    <row r="31" spans="1:5" ht="15.9" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="33"/>
@@ -8128,7 +8181,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="15.95" customHeight="1">
+    <row r="33" spans="1:5" ht="15.9" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="33"/>

--- a/Reports And Zips/Team05Report 10.23.xlsx
+++ b/Reports And Zips/Team05Report 10.23.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samar\Downloads\Scanned pics\stevens\Assignments\Agile\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Class2020\Documents\GitHub\2019fall-Group5-555B-Project\Reports And Zips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465F8B8-ECC2-47F0-9D3E-A03A401F87DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="9" r:id="rId8"/>
     <sheet name="Stories" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="151">
   <si>
     <t>Initials</t>
   </si>
@@ -542,11 +541,29 @@
   <si>
     <t>Calculate the average number of children per family</t>
   </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Death date before birth date</t>
+  </si>
+  <si>
+    <t>Marriage of dead person</t>
+  </si>
+  <si>
+    <t>Check for errors where death date occurs before birth date</t>
+  </si>
+  <si>
+    <t>Check for errors where a dead person is married</t>
+  </si>
+  <si>
+    <t>Calculate the average age of the woman in each family</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
@@ -1359,7 +1376,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1629,7 +1646,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1852,7 +1869,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2075,7 +2092,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2345,7 +2362,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2568,7 +2585,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3736,20 +3753,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -3893,12 +3910,12 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{8BFCE1B1-E6FA-4038-92C5-C14A127ED324}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -3909,21 +3926,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="73.36328125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" style="5" customWidth="1"/>
-    <col min="6" max="256" width="10.90625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="73.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="5" customWidth="1"/>
+    <col min="6" max="256" width="10.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15" customHeight="1">
@@ -5721,7 +5738,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.9" customHeight="1">
+    <row r="18" spans="1:5" ht="12.95" customHeight="1">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -5738,7 +5755,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.9" customHeight="1">
+    <row r="19" spans="1:5" ht="12.95" customHeight="1">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -5755,7 +5772,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.9" customHeight="1">
+    <row r="20" spans="1:5" ht="12.95" customHeight="1">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -5772,7 +5789,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.9" customHeight="1">
+    <row r="21" spans="1:5" ht="12.95" customHeight="1">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -5789,7 +5806,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.9" customHeight="1">
+    <row r="22" spans="1:5" ht="12.95" customHeight="1">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -5806,7 +5823,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.9" customHeight="1">
+    <row r="23" spans="1:5" ht="12.95" customHeight="1">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -5820,6 +5837,74 @@
         <v>103</v>
       </c>
       <c r="E23" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.95" customHeight="1">
+      <c r="A24" s="6">
+        <v>3</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.95" customHeight="1">
+      <c r="A25" s="6">
+        <v>3</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.95" customHeight="1">
+      <c r="A26" s="6">
+        <v>3</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.95" customHeight="1">
+      <c r="A27" s="6">
+        <v>3</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="34" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5834,25 +5919,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="8" customWidth="1"/>
-    <col min="7" max="256" width="10.90625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="7" max="256" width="10.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.9" customHeight="1">
+    <row r="1" spans="1:8" ht="12.95" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -5864,7 +5949,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="12.9" customHeight="1">
+    <row r="2" spans="1:8" ht="12.95" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -5876,7 +5961,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="12.9" customHeight="1">
+    <row r="3" spans="1:8" ht="12.95" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
@@ -5888,7 +5973,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="12.9" customHeight="1">
+    <row r="4" spans="1:8" ht="12.95" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5898,7 +5983,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="12.9" customHeight="1">
+    <row r="5" spans="1:8" ht="12.95" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
@@ -5910,7 +5995,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="12.9" customHeight="1">
+    <row r="6" spans="1:8" ht="12.95" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
@@ -5922,7 +6007,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="12.9" customHeight="1">
+    <row r="7" spans="1:8" ht="12.95" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5932,7 +6017,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="12.9" customHeight="1">
+    <row r="8" spans="1:8" ht="12.95" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>64</v>
       </c>
@@ -5944,7 +6029,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="12.9" customHeight="1">
+    <row r="9" spans="1:8" ht="12.95" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5954,7 +6039,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="12.9" customHeight="1">
+    <row r="10" spans="1:8" ht="12.95" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5964,7 +6049,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.9" customHeight="1">
+    <row r="11" spans="1:8" ht="12.95" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5974,7 +6059,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="12.9" customHeight="1">
+    <row r="12" spans="1:8" ht="12.95" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5984,7 +6069,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="12.9" customHeight="1">
+    <row r="13" spans="1:8" ht="12.95" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5994,7 +6079,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="12.9" customHeight="1">
+    <row r="14" spans="1:8" ht="12.95" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -6018,7 +6103,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="12.9" customHeight="1">
+    <row r="15" spans="1:8" ht="12.95" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
@@ -6036,7 +6121,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="12.9" customHeight="1">
+    <row r="16" spans="1:8" ht="12.95" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>72</v>
       </c>
@@ -6062,7 +6147,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="12.9" customHeight="1">
+    <row r="17" spans="1:8" ht="12.95" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>73</v>
       </c>
@@ -6088,7 +6173,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="12.9" customHeight="1">
+    <row r="18" spans="1:8" ht="12.95" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>74</v>
       </c>
@@ -6114,7 +6199,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="12.9" customHeight="1">
+    <row r="19" spans="1:8" ht="12.95" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
@@ -6140,7 +6225,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="12.9" customHeight="1">
+    <row r="20" spans="1:8" ht="12.95" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="20"/>
@@ -6150,7 +6235,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="12.9" customHeight="1">
+    <row r="21" spans="1:8" ht="12.95" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6160,7 +6245,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="12.9" customHeight="1">
+    <row r="22" spans="1:8" ht="12.95" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6170,7 +6255,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="12.9" customHeight="1">
+    <row r="23" spans="1:8" ht="12.95" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6180,7 +6265,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="12.9" customHeight="1">
+    <row r="24" spans="1:8" ht="12.95" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6190,7 +6275,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="12.9" customHeight="1">
+    <row r="25" spans="1:8" ht="12.95" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6200,7 +6285,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="12.9" customHeight="1">
+    <row r="26" spans="1:8" ht="12.95" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6210,7 +6295,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="12.9" customHeight="1">
+    <row r="27" spans="1:8" ht="12.95" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6220,7 +6305,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="12.9" customHeight="1">
+    <row r="28" spans="1:8" ht="12.95" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6230,7 +6315,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="12.9" customHeight="1">
+    <row r="29" spans="1:8" ht="12.95" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6240,7 +6325,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="12.9" customHeight="1">
+    <row r="30" spans="1:8" ht="12.95" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6250,7 +6335,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="12.9" customHeight="1">
+    <row r="31" spans="1:8" ht="12.95" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6260,7 +6345,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="12.9" customHeight="1">
+    <row r="32" spans="1:8" ht="12.95" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6270,7 +6355,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="12.9" customHeight="1">
+    <row r="33" spans="1:8" ht="12.95" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6280,7 +6365,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="12.9" customHeight="1">
+    <row r="34" spans="1:8" ht="12.95" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6290,7 +6375,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="12.9" customHeight="1">
+    <row r="35" spans="1:8" ht="12.95" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6300,7 +6385,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="12.9" customHeight="1">
+    <row r="36" spans="1:8" ht="12.95" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6310,7 +6395,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="12.9" customHeight="1">
+    <row r="37" spans="1:8" ht="12.95" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6320,7 +6405,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="12.9" customHeight="1">
+    <row r="38" spans="1:8" ht="12.95" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6330,7 +6415,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="12.9" customHeight="1">
+    <row r="39" spans="1:8" ht="12.95" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6352,25 +6437,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="22" customWidth="1"/>
-    <col min="7" max="256" width="10.90625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="22" customWidth="1"/>
+    <col min="7" max="256" width="10.875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.9" customHeight="1">
+    <row r="1" spans="1:7" ht="12.95" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -6391,7 +6476,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="12.9" customHeight="1">
+    <row r="2" spans="1:7" ht="12.95" customHeight="1">
       <c r="A2" s="23">
         <v>42271</v>
       </c>
@@ -6406,7 +6491,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="12.9" customHeight="1">
+    <row r="3" spans="1:7" ht="12.95" customHeight="1">
       <c r="A3" s="23">
         <v>42284</v>
       </c>
@@ -6427,7 +6512,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="12.9" customHeight="1">
+    <row r="4" spans="1:7" ht="12.95" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6436,7 +6521,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="12.9" customHeight="1">
+    <row r="5" spans="1:7" ht="12.95" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6445,7 +6530,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.9" customHeight="1">
+    <row r="6" spans="1:7" ht="12.95" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6454,7 +6539,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.9" customHeight="1">
+    <row r="7" spans="1:7" ht="12.95" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6463,7 +6548,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.9" customHeight="1">
+    <row r="8" spans="1:7" ht="12.95" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6472,7 +6557,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.9" customHeight="1">
+    <row r="9" spans="1:7" ht="12.95" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6481,7 +6566,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="12.9" customHeight="1">
+    <row r="10" spans="1:7" ht="12.95" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6490,7 +6575,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.9" customHeight="1">
+    <row r="11" spans="1:7" ht="12.95" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6499,7 +6584,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="12.9" customHeight="1">
+    <row r="12" spans="1:7" ht="12.95" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6508,7 +6593,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="12.9" customHeight="1">
+    <row r="13" spans="1:7" ht="12.95" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6517,7 +6602,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="12.9" customHeight="1">
+    <row r="14" spans="1:7" ht="12.95" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6526,7 +6611,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="12.9" customHeight="1">
+    <row r="15" spans="1:7" ht="12.95" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6535,7 +6620,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="12.9" customHeight="1">
+    <row r="16" spans="1:7" ht="12.95" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6544,7 +6629,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="12.9" customHeight="1">
+    <row r="17" spans="1:7" ht="12.95" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6553,7 +6638,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="12.9" customHeight="1">
+    <row r="18" spans="1:7" ht="12.95" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6562,7 +6647,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="12.9" customHeight="1">
+    <row r="19" spans="1:7" ht="12.95" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6571,7 +6656,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="12.9" customHeight="1">
+    <row r="20" spans="1:7" ht="12.95" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6580,7 +6665,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="12.9" customHeight="1">
+    <row r="21" spans="1:7" ht="12.95" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6589,7 +6674,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="12.9" customHeight="1">
+    <row r="22" spans="1:7" ht="12.95" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6598,7 +6683,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="12.9" customHeight="1">
+    <row r="23" spans="1:7" ht="12.95" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6607,7 +6692,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="12.9" customHeight="1">
+    <row r="24" spans="1:7" ht="12.95" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6616,7 +6701,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="12.9" customHeight="1">
+    <row r="25" spans="1:7" ht="12.95" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6625,7 +6710,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="12.9" customHeight="1">
+    <row r="26" spans="1:7" ht="12.95" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6645,24 +6730,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="24" customWidth="1"/>
-    <col min="9" max="256" width="10.90625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="24" customWidth="1"/>
+    <col min="9" max="256" width="10.875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
@@ -7117,20 +7202,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="54.453125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" style="29" customWidth="1"/>
-    <col min="5" max="256" width="10.90625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="29" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="29" customWidth="1"/>
+    <col min="5" max="256" width="10.875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.1" customHeight="1">
@@ -7387,7 +7472,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.9" customHeight="1">
+    <row r="11" spans="1:9" ht="12.95" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
@@ -7427,18 +7512,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="48.453125" style="30" customWidth="1"/>
-    <col min="3" max="256" width="10.90625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="30" customWidth="1"/>
+    <col min="3" max="256" width="10.875" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.1" customHeight="1">
@@ -7471,8 +7556,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>93</v>
+      <c r="A2" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>132</v>
@@ -7494,8 +7579,8 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>94</v>
+      <c r="A3" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>98</v>
@@ -7566,11 +7651,21 @@
       <c r="A6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3">
+        <v>75</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -7579,11 +7674,21 @@
       <c r="A7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3">
+        <v>75</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -7627,7 +7732,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="12.9" customHeight="1">
+    <row r="11" spans="1:9" ht="12.95" customHeight="1">
       <c r="A11" s="43" t="s">
         <v>128</v>
       </c>
@@ -7643,14 +7748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="10.90625" style="31" customWidth="1"/>
+    <col min="1" max="256" width="10.875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.1" customHeight="1">
@@ -7792,19 +7897,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="56.90625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="32" customWidth="1"/>
-    <col min="4" max="256" width="10.90625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="56.875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="32" customWidth="1"/>
+    <col min="4" max="256" width="10.875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -7833,7 +7938,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="50.4" customHeight="1">
+    <row r="3" spans="1:5" ht="50.45" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>40</v>
       </c>
@@ -7911,7 +8016,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="50.4" customHeight="1">
+    <row r="9" spans="1:5" ht="50.45" customHeight="1">
       <c r="A9" s="38" t="s">
         <v>53</v>
       </c>
@@ -8041,7 +8146,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="35.4" customHeight="1">
+    <row r="19" spans="1:5" ht="35.450000000000003" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -8114,7 +8219,7 @@
         <v>142</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -8132,21 +8237,33 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="32.1" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="33"/>
+    <row r="26" spans="1:5" ht="41.25" customHeight="1">
+      <c r="A26" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>148</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="128.1" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="33"/>
+    <row r="27" spans="1:5" ht="48" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>149</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.9" customHeight="1">
+    <row r="28" spans="1:5" ht="15.95" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="33"/>
@@ -8160,14 +8277,14 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.9" customHeight="1">
+    <row r="30" spans="1:5" ht="15.95" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="33"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.9" customHeight="1">
+    <row r="31" spans="1:5" ht="15.95" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="33"/>
@@ -8181,7 +8298,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="15.9" customHeight="1">
+    <row r="33" spans="1:5" ht="15.95" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="33"/>

--- a/Reports And Zips/Team05Report 10.23.xlsx
+++ b/Reports And Zips/Team05Report 10.23.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Class2020\Documents\GitHub\2019fall-Group5-555B-Project\Reports And Zips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruohuanxu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84292D2A-0721-7B44-BF02-659781BB90B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="9" r:id="rId8"/>
     <sheet name="Stories" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="157">
   <si>
     <t>Initials</t>
   </si>
@@ -559,14 +560,38 @@
   <si>
     <t>Calculate the average age of the woman in each family</t>
   </si>
+  <si>
+    <t>Delete the information of parents who are bigamy at the same time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct the gender of the family members </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>US27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>US28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct the wrong gender of family members and display the right</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete the data that parents who are bigamy at the same time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="m/d"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="m/d"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -771,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -791,13 +816,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -820,7 +845,7 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -837,10 +862,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -926,7 +956,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -983,7 +1013,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1079,7 +1109,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
@@ -1131,7 +1161,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -1240,8 +1270,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1278413" y="1421684"/>
-          <a:ext cx="1389841" cy="962406"/>
+          <a:off x="1275238" y="1447084"/>
+          <a:ext cx="1389841" cy="981456"/>
           <a:chOff x="-19049" y="-64007"/>
           <a:chExt cx="1389841" cy="981455"/>
         </a:xfrm>
@@ -1376,7 +1406,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1510,8 +1540,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5296289" y="1416265"/>
-          <a:ext cx="1270669" cy="656060"/>
+          <a:off x="5283589" y="1441665"/>
+          <a:ext cx="1267494" cy="668760"/>
           <a:chOff x="0" y="-41148"/>
           <a:chExt cx="1266406" cy="668760"/>
         </a:xfrm>
@@ -1646,7 +1676,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1733,8 +1763,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2776220" y="1237821"/>
-          <a:ext cx="1066588" cy="901138"/>
+          <a:off x="2769870" y="1260046"/>
+          <a:ext cx="1063413" cy="920188"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1063412" cy="920188"/>
         </a:xfrm>
@@ -1869,7 +1899,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1956,8 +1986,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3839844" y="1568576"/>
-          <a:ext cx="394335" cy="618236"/>
+          <a:off x="3830319" y="1597151"/>
+          <a:ext cx="391160" cy="630936"/>
           <a:chOff x="-17779" y="-41148"/>
           <a:chExt cx="391159" cy="630936"/>
         </a:xfrm>
@@ -2092,7 +2122,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2226,8 +2256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4230370" y="1258986"/>
-          <a:ext cx="1118445" cy="956680"/>
+          <a:off x="4217670" y="1281211"/>
+          <a:ext cx="1118445" cy="975730"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1118445" cy="975729"/>
         </a:xfrm>
@@ -2362,7 +2392,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2449,8 +2479,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5427064" y="4987082"/>
-          <a:ext cx="1229091" cy="853427"/>
+          <a:off x="5414364" y="5082332"/>
+          <a:ext cx="1225916" cy="872477"/>
           <a:chOff x="0" y="-41147"/>
           <a:chExt cx="1225916" cy="872477"/>
         </a:xfrm>
@@ -2585,7 +2615,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3753,20 +3783,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -3910,12 +3940,12 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -3926,21 +3956,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="73.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="5" customWidth="1"/>
-    <col min="6" max="256" width="10.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="5" customWidth="1"/>
+    <col min="6" max="256" width="10.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15" customHeight="1">
@@ -3977,7 +4007,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="26.1" customHeight="1">
+    <row r="3" spans="1:256" ht="26" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5738,7 +5768,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.95" customHeight="1">
+    <row r="18" spans="1:5" ht="13" customHeight="1">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -5755,7 +5785,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.95" customHeight="1">
+    <row r="19" spans="1:5" ht="13" customHeight="1">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -5772,7 +5802,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.95" customHeight="1">
+    <row r="20" spans="1:5" ht="13" customHeight="1">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -5789,7 +5819,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.95" customHeight="1">
+    <row r="21" spans="1:5" ht="13" customHeight="1">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -5806,7 +5836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.95" customHeight="1">
+    <row r="22" spans="1:5" ht="13" customHeight="1">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -5823,7 +5853,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.95" customHeight="1">
+    <row r="23" spans="1:5" ht="13" customHeight="1">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -5840,7 +5870,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.95" customHeight="1">
+    <row r="24" spans="1:5" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>3</v>
       </c>
@@ -5857,7 +5887,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.95" customHeight="1">
+    <row r="25" spans="1:5" ht="13" customHeight="1">
       <c r="A25" s="6">
         <v>3</v>
       </c>
@@ -5874,7 +5904,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.95" customHeight="1">
+    <row r="26" spans="1:5" ht="13" customHeight="1">
       <c r="A26" s="6">
         <v>3</v>
       </c>
@@ -5891,7 +5921,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.95" customHeight="1">
+    <row r="27" spans="1:5" ht="13" customHeight="1">
       <c r="A27" s="6">
         <v>3</v>
       </c>
@@ -5905,6 +5935,40 @@
         <v>25</v>
       </c>
       <c r="E27" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13" customHeight="1">
+      <c r="A28" s="46">
+        <v>3</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13" customHeight="1">
+      <c r="A29" s="46">
+        <v>3</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="45" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5919,25 +5983,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
-    <col min="7" max="256" width="10.875" style="8" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.95" customHeight="1">
+    <row r="1" spans="1:8" ht="13" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -5949,7 +6013,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="12.95" customHeight="1">
+    <row r="2" spans="1:8" ht="13" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -5961,7 +6025,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="12.95" customHeight="1">
+    <row r="3" spans="1:8" ht="13" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
@@ -5973,7 +6037,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="12.95" customHeight="1">
+    <row r="4" spans="1:8" ht="13" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5983,7 +6047,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="12.95" customHeight="1">
+    <row r="5" spans="1:8" ht="13" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
@@ -5995,7 +6059,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="12.95" customHeight="1">
+    <row r="6" spans="1:8" ht="13" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
@@ -6007,7 +6071,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="12.95" customHeight="1">
+    <row r="7" spans="1:8" ht="13" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6017,7 +6081,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="12.95" customHeight="1">
+    <row r="8" spans="1:8" ht="13" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>64</v>
       </c>
@@ -6029,7 +6093,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="12.95" customHeight="1">
+    <row r="9" spans="1:8" ht="13" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6039,7 +6103,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="12.95" customHeight="1">
+    <row r="10" spans="1:8" ht="13" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6049,7 +6113,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.95" customHeight="1">
+    <row r="11" spans="1:8" ht="13" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6059,7 +6123,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="12.95" customHeight="1">
+    <row r="12" spans="1:8" ht="13" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6069,7 +6133,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="12.95" customHeight="1">
+    <row r="13" spans="1:8" ht="13" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6079,7 +6143,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="12.95" customHeight="1">
+    <row r="14" spans="1:8" ht="13" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -6103,7 +6167,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="12.95" customHeight="1">
+    <row r="15" spans="1:8" ht="13" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
@@ -6121,7 +6185,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="12.95" customHeight="1">
+    <row r="16" spans="1:8" ht="13" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>72</v>
       </c>
@@ -6147,7 +6211,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="12.95" customHeight="1">
+    <row r="17" spans="1:8" ht="13" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>73</v>
       </c>
@@ -6173,7 +6237,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="12.95" customHeight="1">
+    <row r="18" spans="1:8" ht="13" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>74</v>
       </c>
@@ -6199,7 +6263,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="12.95" customHeight="1">
+    <row r="19" spans="1:8" ht="13" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
@@ -6225,7 +6289,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="12.95" customHeight="1">
+    <row r="20" spans="1:8" ht="13" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="20"/>
@@ -6235,7 +6299,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="12.95" customHeight="1">
+    <row r="21" spans="1:8" ht="13" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6245,7 +6309,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="12.95" customHeight="1">
+    <row r="22" spans="1:8" ht="13" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6255,7 +6319,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="12.95" customHeight="1">
+    <row r="23" spans="1:8" ht="13" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6265,7 +6329,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="12.95" customHeight="1">
+    <row r="24" spans="1:8" ht="13" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6275,7 +6339,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="12.95" customHeight="1">
+    <row r="25" spans="1:8" ht="13" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6285,7 +6349,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="12.95" customHeight="1">
+    <row r="26" spans="1:8" ht="13" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6295,7 +6359,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="12.95" customHeight="1">
+    <row r="27" spans="1:8" ht="13" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6305,7 +6369,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="12.95" customHeight="1">
+    <row r="28" spans="1:8" ht="13" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6315,7 +6379,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="12.95" customHeight="1">
+    <row r="29" spans="1:8" ht="13" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6325,7 +6389,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="12.95" customHeight="1">
+    <row r="30" spans="1:8" ht="13" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6335,7 +6399,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="12.95" customHeight="1">
+    <row r="31" spans="1:8" ht="13" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6345,7 +6409,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="12.95" customHeight="1">
+    <row r="32" spans="1:8" ht="13" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6355,7 +6419,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="12.95" customHeight="1">
+    <row r="33" spans="1:8" ht="13" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6365,7 +6429,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="12.95" customHeight="1">
+    <row r="34" spans="1:8" ht="13" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6375,7 +6439,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="12.95" customHeight="1">
+    <row r="35" spans="1:8" ht="13" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6385,7 +6449,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="12.95" customHeight="1">
+    <row r="36" spans="1:8" ht="13" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6395,7 +6459,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="12.95" customHeight="1">
+    <row r="37" spans="1:8" ht="13" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6405,7 +6469,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="12.95" customHeight="1">
+    <row r="38" spans="1:8" ht="13" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6415,7 +6479,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="12.95" customHeight="1">
+    <row r="39" spans="1:8" ht="13" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6437,25 +6501,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="22" customWidth="1"/>
-    <col min="7" max="256" width="10.875" style="22" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.95" customHeight="1">
+    <row r="1" spans="1:7" ht="13" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -6476,7 +6540,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="12.95" customHeight="1">
+    <row r="2" spans="1:7" ht="13" customHeight="1">
       <c r="A2" s="23">
         <v>42271</v>
       </c>
@@ -6491,7 +6555,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="12.95" customHeight="1">
+    <row r="3" spans="1:7" ht="13" customHeight="1">
       <c r="A3" s="23">
         <v>42284</v>
       </c>
@@ -6512,16 +6576,28 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.95" customHeight="1">
+    <row r="4" spans="1:7" ht="13" customHeight="1">
+      <c r="A4" s="49">
+        <v>42299</v>
+      </c>
+      <c r="B4" s="47">
+        <v>20</v>
+      </c>
+      <c r="C4" s="47">
+        <v>10</v>
+      </c>
+      <c r="D4" s="47">
+        <v>240</v>
+      </c>
+      <c r="E4" s="47">
+        <v>120</v>
+      </c>
+      <c r="F4" s="48">
+        <v>120</v>
+      </c>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="13" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6530,7 +6606,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.95" customHeight="1">
+    <row r="6" spans="1:7" ht="13" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6539,7 +6615,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.95" customHeight="1">
+    <row r="7" spans="1:7" ht="13" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6548,7 +6624,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.95" customHeight="1">
+    <row r="8" spans="1:7" ht="13" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6557,7 +6633,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.95" customHeight="1">
+    <row r="9" spans="1:7" ht="13" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6566,7 +6642,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="12.95" customHeight="1">
+    <row r="10" spans="1:7" ht="13" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6575,7 +6651,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.95" customHeight="1">
+    <row r="11" spans="1:7" ht="13" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6584,7 +6660,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="12.95" customHeight="1">
+    <row r="12" spans="1:7" ht="13" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6593,7 +6669,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="12.95" customHeight="1">
+    <row r="13" spans="1:7" ht="13" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6602,7 +6678,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="12.95" customHeight="1">
+    <row r="14" spans="1:7" ht="13" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6611,7 +6687,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="12.95" customHeight="1">
+    <row r="15" spans="1:7" ht="13" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6620,7 +6696,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="12.95" customHeight="1">
+    <row r="16" spans="1:7" ht="13" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6629,7 +6705,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="12.95" customHeight="1">
+    <row r="17" spans="1:7" ht="13" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6638,7 +6714,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="12.95" customHeight="1">
+    <row r="18" spans="1:7" ht="13" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6647,7 +6723,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="12.95" customHeight="1">
+    <row r="19" spans="1:7" ht="13" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6656,7 +6732,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="12.95" customHeight="1">
+    <row r="20" spans="1:7" ht="13" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6665,7 +6741,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="12.95" customHeight="1">
+    <row r="21" spans="1:7" ht="13" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6674,7 +6750,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="12.95" customHeight="1">
+    <row r="22" spans="1:7" ht="13" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6683,7 +6759,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="12.95" customHeight="1">
+    <row r="23" spans="1:7" ht="13" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6692,7 +6768,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="12.95" customHeight="1">
+    <row r="24" spans="1:7" ht="13" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6701,7 +6777,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="12.95" customHeight="1">
+    <row r="25" spans="1:7" ht="13" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6710,7 +6786,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="12.95" customHeight="1">
+    <row r="26" spans="1:7" ht="13" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6730,24 +6806,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="24" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="24" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="24" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="24" customWidth="1"/>
-    <col min="9" max="256" width="10.875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="24" customWidth="1"/>
+    <col min="9" max="256" width="10.83203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
@@ -6895,7 +6971,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26.1" customHeight="1">
+    <row r="6" spans="1:9" ht="26" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -7011,7 +7087,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26.1" customHeight="1">
+    <row r="10" spans="1:9" ht="26" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -7069,7 +7145,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26.1" customHeight="1">
+    <row r="12" spans="1:9" ht="26" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
@@ -7143,7 +7219,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="26.1" customHeight="1">
+    <row r="18" spans="1:9" ht="26" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
@@ -7178,7 +7254,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="26.1" customHeight="1">
+    <row r="21" spans="1:9" ht="26" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="37" t="s">
         <v>104</v>
@@ -7202,23 +7278,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IV11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="54.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="29" customWidth="1"/>
-    <col min="5" max="256" width="10.875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="29" customWidth="1"/>
+    <col min="5" max="256" width="10.83203125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.1" customHeight="1">
+    <row r="1" spans="1:9" ht="26" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7472,7 +7548,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+    <row r="11" spans="1:9" ht="13" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
@@ -7512,21 +7588,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="30" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="30" customWidth="1"/>
-    <col min="3" max="256" width="10.875" style="30" customWidth="1"/>
+    <col min="3" max="256" width="10.83203125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.1" customHeight="1">
+    <row r="1" spans="1:9" ht="26" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7697,11 +7773,21 @@
       <c r="A8" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3">
+        <v>75</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -7710,11 +7796,21 @@
       <c r="A9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="3">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3">
+        <v>75</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -7732,7 +7828,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+    <row r="11" spans="1:9" ht="13" customHeight="1">
       <c r="A11" s="43" t="s">
         <v>128</v>
       </c>
@@ -7748,17 +7844,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="10.875" style="31" customWidth="1"/>
+    <col min="1" max="256" width="10.83203125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.1" customHeight="1">
+    <row r="1" spans="1:9" ht="26" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7897,19 +7993,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="56.875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="32" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="32" customWidth="1"/>
-    <col min="4" max="256" width="10.875" style="32" customWidth="1"/>
+    <col min="4" max="256" width="10.83203125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -7925,7 +8021,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="57.6" customHeight="1">
+    <row r="2" spans="1:5" ht="57.5" customHeight="1">
       <c r="A2" s="38" t="s">
         <v>37</v>
       </c>
@@ -7938,7 +8034,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="50.45" customHeight="1">
+    <row r="3" spans="1:5" ht="50.5" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>40</v>
       </c>
@@ -7951,7 +8047,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30.6" customHeight="1">
+    <row r="4" spans="1:5" ht="30.5" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>42</v>
       </c>
@@ -7964,7 +8060,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="37.35" customHeight="1">
+    <row r="5" spans="1:5" ht="37.25" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>44</v>
       </c>
@@ -7977,7 +8073,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="45.6" customHeight="1">
+    <row r="6" spans="1:5" ht="45.5" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>46</v>
       </c>
@@ -7990,7 +8086,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="36.6" customHeight="1">
+    <row r="7" spans="1:5" ht="36.5" customHeight="1">
       <c r="A7" s="38" t="s">
         <v>49</v>
       </c>
@@ -8016,7 +8112,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="50.45" customHeight="1">
+    <row r="9" spans="1:5" ht="50.5" customHeight="1">
       <c r="A9" s="38" t="s">
         <v>53</v>
       </c>
@@ -8042,7 +8138,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="60.6" customHeight="1">
+    <row r="11" spans="1:5" ht="60.5" customHeight="1">
       <c r="A11" s="38" t="s">
         <v>57</v>
       </c>
@@ -8120,7 +8216,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="32.1" customHeight="1">
+    <row r="17" spans="1:5" ht="32" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
@@ -8146,7 +8242,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="35.450000000000003" customHeight="1">
+    <row r="19" spans="1:5" ht="35.5" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -8159,7 +8255,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="30.6" customHeight="1">
+    <row r="20" spans="1:5" ht="30.5" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>93</v>
       </c>
@@ -8172,7 +8268,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="32.1" customHeight="1">
+    <row r="21" spans="1:5" ht="32" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>94</v>
       </c>
@@ -8185,7 +8281,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="32.1" customHeight="1">
+    <row r="22" spans="1:5" ht="32" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>119</v>
       </c>
@@ -8198,7 +8294,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="32.1" customHeight="1">
+    <row r="23" spans="1:5" ht="32" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>120</v>
       </c>
@@ -8211,7 +8307,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="32.1" customHeight="1">
+    <row r="24" spans="1:5" ht="32" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>121</v>
       </c>
@@ -8263,49 +8359,61 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="33"/>
+    <row r="28" spans="1:5" ht="16" customHeight="1">
+      <c r="A28" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>155</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="32.1" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="33"/>
+    <row r="29" spans="1:5" ht="32" customHeight="1">
+      <c r="A29" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>156</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.95" customHeight="1">
+    <row r="30" spans="1:5" ht="16" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="33"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.95" customHeight="1">
+    <row r="31" spans="1:5" ht="16" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="33"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="32.1" customHeight="1">
+    <row r="32" spans="1:5" ht="32" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="33"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="15.95" customHeight="1">
+    <row r="33" spans="1:5" ht="16" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="33"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="32.1" customHeight="1">
+    <row r="34" spans="1:5" ht="32" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="33"/>
@@ -8319,56 +8427,56 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="32.1" customHeight="1">
+    <row r="36" spans="1:5" ht="32" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="33"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="32.1" customHeight="1">
+    <row r="37" spans="1:5" ht="32" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="33"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="32.1" customHeight="1">
+    <row r="38" spans="1:5" ht="32" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="33"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="32.1" customHeight="1">
+    <row r="39" spans="1:5" ht="32" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="33"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="32.1" customHeight="1">
+    <row r="40" spans="1:5" ht="32" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="33"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="32.1" customHeight="1">
+    <row r="41" spans="1:5" ht="32" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="33"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="32.1" customHeight="1">
+    <row r="42" spans="1:5" ht="32" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="33"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="32.1" customHeight="1">
+    <row r="43" spans="1:5" ht="32" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="33"/>
